--- a/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_29.xlsx
+++ b/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_29.xlsx
@@ -508,393 +508,393 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_29_3</t>
+          <t>model_1_29_9</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.999581548259176</v>
+        <v>0.9482022395371372</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8263132408962285</v>
+        <v>0.7200199511033096</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8177605152944839</v>
+        <v>0.7639492534234158</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9993078117795337</v>
+        <v>0.8232817393899694</v>
       </c>
       <c r="F2" t="n">
-        <v>0.001741816542515872</v>
+        <v>0.1662856868577863</v>
       </c>
       <c r="G2" t="n">
-        <v>1.161444157880908</v>
+        <v>1.872227876161752</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6518600699391743</v>
+        <v>0.844339833495749</v>
       </c>
       <c r="I2" t="n">
-        <v>0.002332672877820581</v>
+        <v>0.2605997373379126</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1131361575994206</v>
+        <v>0.9870525490415347</v>
       </c>
       <c r="K2" t="n">
-        <v>0.04173507568599669</v>
+        <v>0.4077814204421117</v>
       </c>
       <c r="L2" t="n">
-        <v>1.026780911412736</v>
+        <v>0.9294668793697187</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04239236140828138</v>
+        <v>0.4142035701822044</v>
       </c>
       <c r="N2" t="n">
-        <v>142.7056534407651</v>
+        <v>37.58809592938133</v>
       </c>
       <c r="O2" t="n">
-        <v>284.0408259839816</v>
+        <v>74.55267951760715</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_29_2</t>
+          <t>model_1_29_8</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9995694363357874</v>
+        <v>0.948179120380672</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8262642922108236</v>
+        <v>0.7199234256373379</v>
       </c>
       <c r="D3" t="n">
-        <v>0.817548015362767</v>
+        <v>0.7641684276526476</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9993100023137349</v>
+        <v>0.8239483400830349</v>
       </c>
       <c r="F3" t="n">
-        <v>0.001792232746970752</v>
+        <v>0.1663599059896184</v>
       </c>
       <c r="G3" t="n">
-        <v>1.161771477965598</v>
+        <v>1.872873342397164</v>
       </c>
       <c r="H3" t="n">
-        <v>0.652620169873472</v>
+        <v>0.8435558599862388</v>
       </c>
       <c r="I3" t="n">
-        <v>0.002325290782072501</v>
+        <v>0.2596167264995167</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1151103046557191</v>
+        <v>0.9856552016088566</v>
       </c>
       <c r="K3" t="n">
-        <v>0.04233476995296835</v>
+        <v>0.4078724138620046</v>
       </c>
       <c r="L3" t="n">
-        <v>1.027556074509604</v>
+        <v>0.9294353979651704</v>
       </c>
       <c r="M3" t="n">
-        <v>0.04300150026048351</v>
+        <v>0.4142959966575005</v>
       </c>
       <c r="N3" t="n">
-        <v>142.6485861834823</v>
+        <v>37.58720345841932</v>
       </c>
       <c r="O3" t="n">
-        <v>283.9837587266987</v>
+        <v>74.55178704664515</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_29_4</t>
+          <t>model_1_29_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9995826172027613</v>
+        <v>0.9481546570292476</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8262506662134904</v>
+        <v>0.7198252531680744</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8174342970231507</v>
+        <v>0.7643896720035858</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9992688142981105</v>
+        <v>0.8246189063348635</v>
       </c>
       <c r="F4" t="n">
-        <v>0.001737367036304513</v>
+        <v>0.1664384403733079</v>
       </c>
       <c r="G4" t="n">
-        <v>1.161862595072507</v>
+        <v>1.873529822151172</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6530269337805108</v>
+        <v>0.8427644817714175</v>
       </c>
       <c r="I4" t="n">
-        <v>0.002464094309924112</v>
+        <v>0.2586278678015476</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1116789696997312</v>
+        <v>0.9842360878359324</v>
       </c>
       <c r="K4" t="n">
-        <v>0.04168173504431543</v>
+        <v>0.40796867572561</v>
       </c>
       <c r="L4" t="n">
-        <v>1.026712499023276</v>
+        <v>0.9294020861674861</v>
       </c>
       <c r="M4" t="n">
-        <v>0.04233818070481472</v>
+        <v>0.414393774549231</v>
       </c>
       <c r="N4" t="n">
-        <v>142.710769018643</v>
+        <v>37.58625953083067</v>
       </c>
       <c r="O4" t="n">
-        <v>284.0459415618594</v>
+        <v>74.55084311905649</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_29_5</t>
+          <t>model_1_29_6</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9995874784393405</v>
+        <v>0.9481288714050508</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8262409888937169</v>
+        <v>0.7197253890656097</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8173818323689722</v>
+        <v>0.7646132053719223</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9992599058842813</v>
+        <v>0.8252938369157605</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001717132009264235</v>
+        <v>0.1665212196323397</v>
       </c>
       <c r="G5" t="n">
-        <v>1.161927307354393</v>
+        <v>1.874197613864185</v>
       </c>
       <c r="H5" t="n">
-        <v>0.653214596806432</v>
+        <v>0.8419649158740867</v>
       </c>
       <c r="I5" t="n">
-        <v>0.00249411564618714</v>
+        <v>0.2576325731925131</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1111382044322397</v>
+        <v>0.9827944637227951</v>
       </c>
       <c r="K5" t="n">
-        <v>0.04143829158235453</v>
+        <v>0.4080701160736225</v>
       </c>
       <c r="L5" t="n">
-        <v>1.026401379882209</v>
+        <v>0.9293669738281543</v>
       </c>
       <c r="M5" t="n">
-        <v>0.04209090325168212</v>
+        <v>0.4144968124813216</v>
       </c>
       <c r="N5" t="n">
-        <v>142.7341996327011</v>
+        <v>37.58526506488563</v>
       </c>
       <c r="O5" t="n">
-        <v>284.0693721759175</v>
+        <v>74.54984865311145</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_29_8</t>
+          <t>model_1_29_5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9996037677455819</v>
+        <v>0.948101714569622</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8262255580442845</v>
+        <v>0.7196238104734873</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8179326225297641</v>
+        <v>0.7648388144372993</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9992939612730014</v>
+        <v>0.8259726354374548</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001649327337161747</v>
+        <v>0.1666084008732236</v>
       </c>
       <c r="G6" t="n">
-        <v>1.1620304935156</v>
+        <v>1.874876870377433</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6512444523379284</v>
+        <v>0.841157925328799</v>
       </c>
       <c r="I6" t="n">
-        <v>0.002379349056317337</v>
+        <v>0.256631574677429</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1095341686489925</v>
+        <v>0.9813307203336231</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0406119112719624</v>
+        <v>0.4081769234942411</v>
       </c>
       <c r="L6" t="n">
-        <v>1.025358864282758</v>
+        <v>0.9293299943075704</v>
       </c>
       <c r="M6" t="n">
-        <v>0.04125150827747855</v>
+        <v>0.4146053020120467</v>
       </c>
       <c r="N6" t="n">
-        <v>142.8147754972778</v>
+        <v>37.58421825022241</v>
       </c>
       <c r="O6" t="n">
-        <v>284.1499480404942</v>
+        <v>74.54880183844824</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_29_9</t>
+          <t>model_1_29_4</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9995724570380725</v>
+        <v>0.9480731061475586</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8262039768473944</v>
+        <v>0.7195205087346654</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8160743520620468</v>
+        <v>0.7650667879843563</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9989868166283178</v>
+        <v>0.8266553885838687</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001779658993065932</v>
+        <v>0.166700242124085</v>
       </c>
       <c r="G7" t="n">
-        <v>1.162174807078576</v>
+        <v>1.875567649580597</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6578913780522402</v>
+        <v>0.8403424771696415</v>
       </c>
       <c r="I7" t="n">
-        <v>0.003414425876518658</v>
+        <v>0.2556247444267923</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1077727127502877</v>
+        <v>0.9798453399056066</v>
       </c>
       <c r="K7" t="n">
-        <v>0.04218600470613366</v>
+        <v>0.4082894097623461</v>
       </c>
       <c r="L7" t="n">
-        <v>1.027362749563359</v>
+        <v>0.9292910381583777</v>
       </c>
       <c r="M7" t="n">
-        <v>0.04285039210972186</v>
+        <v>0.4147195598264294</v>
       </c>
       <c r="N7" t="n">
-        <v>142.6626670199212</v>
+        <v>37.58311607354485</v>
       </c>
       <c r="O7" t="n">
-        <v>283.9978395631376</v>
+        <v>74.54769966177066</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_29_6</t>
+          <t>model_1_29_3</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9995947173364291</v>
+        <v>0.948043067063194</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8261789219137093</v>
+        <v>0.719415403993004</v>
       </c>
       <c r="D8" t="n">
-        <v>0.817536190718865</v>
+        <v>0.7652968160099765</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9992874196595167</v>
+        <v>0.8273419727290454</v>
       </c>
       <c r="F8" t="n">
-        <v>0.001686999906877175</v>
+        <v>0.1667966762118044</v>
       </c>
       <c r="G8" t="n">
-        <v>1.162342349535496</v>
+        <v>1.87627048547205</v>
       </c>
       <c r="H8" t="n">
-        <v>0.652662465939077</v>
+        <v>0.8395196802597895</v>
       </c>
       <c r="I8" t="n">
-        <v>0.002401394280292105</v>
+        <v>0.2546122647471271</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1112291679291825</v>
+        <v>0.9783407301787951</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0410731044222028</v>
+        <v>0.4084074879477658</v>
       </c>
       <c r="L8" t="n">
-        <v>1.025938090468536</v>
+        <v>0.9292501338732854</v>
       </c>
       <c r="M8" t="n">
-        <v>0.04171996475881123</v>
+        <v>0.4148394976252345</v>
       </c>
       <c r="N8" t="n">
-        <v>142.7696070612371</v>
+        <v>37.58195943208755</v>
       </c>
       <c r="O8" t="n">
-        <v>284.1047796044535</v>
+        <v>74.54654302031336</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_29_7</t>
+          <t>model_1_29_2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9996019915690504</v>
+        <v>0.9480115207878478</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8261536706725349</v>
+        <v>0.7193085267503743</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8176833730573063</v>
+        <v>0.7655292359554716</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9992996767615434</v>
+        <v>0.8280324434085734</v>
       </c>
       <c r="F9" t="n">
-        <v>0.001656720719392432</v>
+        <v>0.1668979488154241</v>
       </c>
       <c r="G9" t="n">
-        <v>1.162511204701501</v>
+        <v>1.876985174085639</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6521360032485946</v>
+        <v>0.8386883275912361</v>
       </c>
       <c r="I9" t="n">
-        <v>0.00236008787169839</v>
+        <v>0.2535940537422009</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1103788381397165</v>
+        <v>0.9768127949321475</v>
       </c>
       <c r="K9" t="n">
-        <v>0.04070283429188232</v>
+        <v>0.4085314538874872</v>
       </c>
       <c r="L9" t="n">
-        <v>1.025472539580775</v>
+        <v>0.9292071772430268</v>
       </c>
       <c r="M9" t="n">
-        <v>0.04134386324407254</v>
+        <v>0.4149654159045861</v>
       </c>
       <c r="N9" t="n">
-        <v>142.8058302013482</v>
+        <v>37.58074547658293</v>
       </c>
       <c r="O9" t="n">
-        <v>284.1410027445646</v>
+        <v>74.54532906480874</v>
       </c>
     </row>
     <row r="10">
@@ -904,46 +904,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9995337427737961</v>
+        <v>0.9479784846295964</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8260904259871212</v>
+        <v>0.7191998718078176</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8173021330583073</v>
+        <v>0.7657637885216413</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9993012680008276</v>
+        <v>0.8287265983364632</v>
       </c>
       <c r="F10" t="n">
-        <v>0.001940808151664862</v>
+        <v>0.1670040043710484</v>
       </c>
       <c r="G10" t="n">
-        <v>1.162934122204077</v>
+        <v>1.877711750186825</v>
       </c>
       <c r="H10" t="n">
-        <v>0.653499676619449</v>
+        <v>0.8378493466621864</v>
       </c>
       <c r="I10" t="n">
-        <v>0.002354725398586569</v>
+        <v>0.2525704097155143</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1204615260397762</v>
+        <v>0.9752651196284648</v>
       </c>
       <c r="K10" t="n">
-        <v>0.04405460420506421</v>
+        <v>0.4086612342405974</v>
       </c>
       <c r="L10" t="n">
-        <v>1.029840462477047</v>
+        <v>0.9291621918360462</v>
       </c>
       <c r="M10" t="n">
-        <v>0.04474842018284636</v>
+        <v>0.415097240168525</v>
       </c>
       <c r="N10" t="n">
-        <v>142.4893016392525</v>
+        <v>37.57947497716621</v>
       </c>
       <c r="O10" t="n">
-        <v>283.8244741824689</v>
+        <v>74.54405856539204</v>
       </c>
     </row>
     <row r="11">
@@ -953,46 +953,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.999522507658365</v>
+        <v>0.9479438682224035</v>
       </c>
       <c r="C11" t="n">
-        <v>0.826083351447189</v>
+        <v>0.7190893396959366</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8172955443421785</v>
+        <v>0.7660005854732874</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9992882509789911</v>
+        <v>0.8294243960855485</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001987574619588818</v>
+        <v>0.1671151329796056</v>
       </c>
       <c r="G11" t="n">
-        <v>1.162981429685179</v>
+        <v>1.878450878927927</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6535232440750058</v>
+        <v>0.8370023376964244</v>
       </c>
       <c r="I11" t="n">
-        <v>0.002398592735375126</v>
+        <v>0.2515413937581432</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1195107525081762</v>
+        <v>0.9736956404016748</v>
       </c>
       <c r="K11" t="n">
-        <v>0.04458222313421368</v>
+        <v>0.4087971782921276</v>
       </c>
       <c r="L11" t="n">
-        <v>1.030559509864638</v>
+        <v>0.9291150546007196</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0452843485827045</v>
+        <v>0.4152353252029726</v>
       </c>
       <c r="N11" t="n">
-        <v>142.4416803353867</v>
+        <v>37.57814457013193</v>
       </c>
       <c r="O11" t="n">
-        <v>283.7768528786031</v>
+        <v>74.54272815835775</v>
       </c>
     </row>
   </sheetData>
